--- a/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
+++ b/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
@@ -1,64 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CESTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\Desktop\Variáveis marianne FINAL\indst\CESTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BBB2DA-BCBA-4D74-B3C9-239FC0127515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="-19308" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CESTR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>The Sales Tax Clearinghouse</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>FAQ</t>
-  </si>
-  <si>
-    <t>https://thestc.com/FAQ.stm</t>
-  </si>
-  <si>
-    <t>Question "What is the average sales tax nationally?"</t>
-  </si>
-  <si>
     <t>Note:</t>
   </si>
   <si>
     <t>CESTR Capital Eqpt Sales Tax Rate</t>
   </si>
   <si>
-    <t>We are using the national average sales tax rate.</t>
-  </si>
-  <si>
     <t>Capital Eqpt</t>
   </si>
   <si>
     <t>Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>Secretaria da Receita Federal do Brasil</t>
+  </si>
+  <si>
+    <t>http://receita.economia.gov.br/</t>
+  </si>
+  <si>
+    <t>There are at least 6 different sales taxes in Brazil: ICMS, ISS, IE, COFINS, IPI and PIS/PASEP. We are using the standard ICMS rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICMS = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +119,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,95 +455,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.86328125" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{101CBCC1-3591-48AD-82CD-50B5145A1D28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>6.8000000000000005E-2</v>
+        <f>About!C9</f>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
